--- a/medicine/Mort/Cimetière_de_West_Norwood/Cimetière_de_West_Norwood.xlsx
+++ b/medicine/Mort/Cimetière_de_West_Norwood/Cimetière_de_West_Norwood.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_West_Norwood</t>
+          <t>Cimetière_de_West_Norwood</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de West Norwood (en anglais : West Norwood Cemetery) est un cimetière situé dans le quartier de West Norwood du sud de Londres, au Royaume-Uni. Il fait partie des sept grands cimetières historiques de la ville, appelés les Magnificent Seven.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_West_Norwood</t>
+          <t>Cimetière_de_West_Norwood</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière s'étend sur 16 hectares dans le borough de Lambeth et est longé par Robson Road au nord et par des propriétés privées sur le reste de son pourtour. L'entrée principale est située sur Norwood Road, où celle-ci se divise en Norwood High Street et Knights 'Hill, près de la jonction avec Robson Road.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_West_Norwood</t>
+          <t>Cimetière_de_West_Norwood</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cimetière fut ouvert en 1837 par la South Metropolitan Cemetery Company. Il est rapidement devenu un endroit à la mode pour les inhumations de célébrités et était beaucoup visité et admiré. Le cimetière de Norwood est un cimetière naturel (« Landscape cemetery »), dont les allées sont pleines d'arbres, d'arbustes et de fleurs. Le cimetière de Norwood est connu pour son architecture;  c’était le premier au monde à utiliser le style gothique.
 Il y a : 
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_West_Norwood</t>
+          <t>Cimetière_de_West_Norwood</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gideon Mantell (1790-1852), scientifique
 William Marsden (1796-1867), médecin
